--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/75.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/75.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1605602618649039</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.673037402043311</v>
+        <v>-1.672351916715985</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2012657758527555</v>
+        <v>-0.2026021180867398</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3090656234132757</v>
+        <v>-0.3107624160260378</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1564924394795944</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.810845924151429</v>
+        <v>-1.811105637306444</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1874049634705816</v>
+        <v>-0.1885555714482524</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3107104733950349</v>
+        <v>-0.3121412567762972</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1711574353980257</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.986817326865043</v>
+        <v>-1.988144224984299</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2601451091232503</v>
+        <v>-0.2622055001530329</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3416257829565017</v>
+        <v>-0.343428034850391</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2017410494097643</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.015561277048675</v>
+        <v>-2.016737856341848</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.234572020459478</v>
+        <v>-0.2364891757492223</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3463934868749215</v>
+        <v>-0.3478903790592784</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2319295652323152</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.95239746373</v>
+        <v>-1.95325687817023</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.189490538806305</v>
+        <v>-0.1908111408490763</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3602039306452137</v>
+        <v>-0.3615261067071063</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2483611371363567</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.706571879422622</v>
+        <v>-1.706881174179958</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1622678781034096</v>
+        <v>-0.1642779005213106</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3767925181646017</v>
+        <v>-0.3782484858518048</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2460435561015109</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.479333886918685</v>
+        <v>-1.48073240290796</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04449189735208567</v>
+        <v>-0.04668922804542142</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3601299517465126</v>
+        <v>-0.361702396848692</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2228849272715108</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.1939036204907</v>
+        <v>-1.197032770503846</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00499841185985056</v>
+        <v>0.002991537480192183</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3138522155611511</v>
+        <v>-0.3145211736877039</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1754606876169295</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.006947138329529</v>
+        <v>-1.011336290649276</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1466900391402172</v>
+        <v>0.1460446913004839</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3062386850714197</v>
+        <v>-0.3075372508464927</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.0993681430817077</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7730990525256889</v>
+        <v>-0.7788505183949216</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1698863589308254</v>
+        <v>0.1703050480170914</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2917907635570006</v>
+        <v>-0.2937724536307182</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.01199181853315848</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5430718981388063</v>
+        <v>-0.5503391444218516</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1608121386965269</v>
+        <v>0.162178387293816</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2452879426372931</v>
+        <v>-0.246805297070227</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1658808315111268</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3283741159742712</v>
+        <v>-0.3372893602773183</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01581956503847234</v>
+        <v>-0.01531587891965612</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1947839651112392</v>
+        <v>-0.1964004827488151</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3627694352915785</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01921157624487532</v>
+        <v>-0.02871235566104627</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1352041933317656</v>
+        <v>-0.1342172833427101</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.08594998698802449</v>
+        <v>-0.08704235625820717</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5960656035187273</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3802020718616594</v>
+        <v>0.3693791163835959</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4100483941594426</v>
+        <v>-0.4098233094250966</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04122760997482849</v>
+        <v>0.04098521103014818</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8538966234454642</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7414835327355637</v>
+        <v>0.7290975762700486</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.614911704854091</v>
+        <v>-0.6145843088768604</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08375603261325178</v>
+        <v>0.08267310745779691</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.115724568519233</v>
       </c>
       <c r="E17" t="n">
-        <v>1.235089633098974</v>
+        <v>1.223103477490269</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7332401663169915</v>
+        <v>-0.7310145032794724</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1452702738928039</v>
+        <v>0.1440944816091923</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.368628139104547</v>
       </c>
       <c r="E18" t="n">
-        <v>1.58844590769713</v>
+        <v>1.57611504190086</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9274402844743884</v>
+        <v>-0.9251839280640038</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2003326107941446</v>
+        <v>0.1983367545483354</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.606999669984789</v>
       </c>
       <c r="E19" t="n">
-        <v>1.953509736519519</v>
+        <v>1.941015172734635</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.038197713963833</v>
+        <v>-1.034763991250715</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2655269087792978</v>
+        <v>0.2631155114854651</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.821750946259062</v>
       </c>
       <c r="E20" t="n">
-        <v>2.268941594409056</v>
+        <v>2.2559984351746</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.255678361934827</v>
+        <v>-1.251637854850449</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3372470900413637</v>
+        <v>0.334930133894809</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.005021849751969</v>
       </c>
       <c r="E21" t="n">
-        <v>2.529254450708885</v>
+        <v>2.516270366977276</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.293405239243723</v>
+        <v>-1.287735622368798</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4615709903372985</v>
+        <v>0.4595090252883945</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.152834929172579</v>
       </c>
       <c r="E22" t="n">
-        <v>2.75055996514464</v>
+        <v>2.737331908449229</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.407033679610419</v>
+        <v>-1.400436965473048</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4645018139411604</v>
+        <v>0.4616764496184256</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.265646181523145</v>
       </c>
       <c r="E23" t="n">
-        <v>2.83042884339768</v>
+        <v>2.816010828246565</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.517192194824209</v>
+        <v>-1.510644275279598</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5629850423227017</v>
+        <v>0.5604933700536828</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.350980216432703</v>
       </c>
       <c r="E24" t="n">
-        <v>2.953279461796077</v>
+        <v>2.939601235631974</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.657796961901317</v>
+        <v>-1.652467333156593</v>
       </c>
       <c r="G24" t="n">
-        <v>0.603586865556653</v>
+        <v>0.6013942569206812</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.413326289580842</v>
       </c>
       <c r="E25" t="n">
-        <v>2.962031008110509</v>
+        <v>2.948530646107113</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.610936051631514</v>
+        <v>-1.602906980093759</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6583879152838578</v>
+        <v>0.656143364016883</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.454953602131192</v>
       </c>
       <c r="E26" t="n">
-        <v>2.948640827445604</v>
+        <v>2.934868160134223</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.530970371202514</v>
+        <v>-1.521724582883994</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6009519575475957</v>
+        <v>0.5975331880161305</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.476362755464921</v>
       </c>
       <c r="E27" t="n">
-        <v>3.016784837264075</v>
+        <v>3.004578318978388</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.573346113986172</v>
+        <v>-1.564720489201444</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6296856766069397</v>
+        <v>0.6267170765441666</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.474057953385671</v>
       </c>
       <c r="E28" t="n">
-        <v>2.956444814249013</v>
+        <v>2.944450788544702</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.526633948523331</v>
+        <v>-1.51805318328356</v>
       </c>
       <c r="G28" t="n">
-        <v>0.647306820669901</v>
+        <v>0.6441178579301458</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.444970226172163</v>
       </c>
       <c r="E29" t="n">
-        <v>2.825827985506118</v>
+        <v>2.812977693399819</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.676657646022303</v>
+        <v>-1.669750063108475</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6169345477052829</v>
+        <v>0.6140477966368174</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.388761542308615</v>
       </c>
       <c r="E30" t="n">
-        <v>2.778459454069695</v>
+        <v>2.766241917650159</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.660485386560499</v>
+        <v>-1.653572294579746</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5694117623949725</v>
+        <v>0.5661126183167262</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.309825127462027</v>
       </c>
       <c r="E31" t="n">
-        <v>2.663225514199272</v>
+        <v>2.651420370789516</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.696289599512726</v>
+        <v>-1.690443692496215</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5608176179926707</v>
+        <v>0.5580473443391816</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.215928613110814</v>
       </c>
       <c r="E32" t="n">
-        <v>2.622507213550344</v>
+        <v>2.610765030905441</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.739925344602984</v>
+        <v>-1.734783811143255</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5517371016818871</v>
+        <v>0.5490817314242528</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.115735768519892</v>
       </c>
       <c r="E33" t="n">
-        <v>2.445963654886138</v>
+        <v>2.434265544776631</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.731308376923423</v>
+        <v>-1.726284107888232</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5478980690450347</v>
+        <v>0.5458124937093113</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.013901623591599</v>
       </c>
       <c r="E34" t="n">
-        <v>2.273998917845795</v>
+        <v>2.261872674535295</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.721942963151684</v>
+        <v>-1.717296458705605</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4875092514372125</v>
+        <v>0.4851261864875633</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.911269498517429</v>
       </c>
       <c r="E35" t="n">
-        <v>2.120818524999055</v>
+        <v>2.109224300151554</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.758948152693463</v>
+        <v>-1.755338926848321</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4245941331397027</v>
+        <v>0.4222913431652398</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.807148550665329</v>
       </c>
       <c r="E36" t="n">
-        <v>1.96910984003073</v>
+        <v>1.957882361638493</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.629479570899557</v>
+        <v>-1.624652054254528</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4264750859896571</v>
+        <v>0.4242934954875343</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.699200039710347</v>
       </c>
       <c r="E37" t="n">
-        <v>1.770607140605258</v>
+        <v>1.758948380973784</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.61508201799702</v>
+        <v>-1.610149042070864</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3476970029876789</v>
+        <v>0.344572575031897</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.584995635851754</v>
       </c>
       <c r="E38" t="n">
-        <v>1.65173721656463</v>
+        <v>1.640808801805439</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.513396447713192</v>
+        <v>-1.507780347488391</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3001207010272443</v>
+        <v>0.2967664662797526</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.465594097589709</v>
       </c>
       <c r="E39" t="n">
-        <v>1.479530080579607</v>
+        <v>1.468414357544982</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.475862387746656</v>
+        <v>-1.470107773839181</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2846701293325568</v>
+        <v>0.2821249404134136</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.341332262822263</v>
       </c>
       <c r="E40" t="n">
-        <v>1.250982504166747</v>
+        <v>1.239396149414853</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.543839551538269</v>
+        <v>-1.539981630671961</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3042225948573539</v>
+        <v>0.3022031283247251</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.213884794115548</v>
       </c>
       <c r="E41" t="n">
-        <v>1.16562187319949</v>
+        <v>1.154937431404101</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.484073258492921</v>
+        <v>-1.480277511381904</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2051412392097182</v>
+        <v>0.2026936394760956</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.085951469474895</v>
       </c>
       <c r="E42" t="n">
-        <v>1.027342719374103</v>
+        <v>1.017248534749202</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.370238621621334</v>
+        <v>-1.364542246421347</v>
       </c>
       <c r="G42" t="n">
-        <v>0.165565676442855</v>
+        <v>0.1629260463764338</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9582656344010195</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9388104398774244</v>
+        <v>0.9290892977842714</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.305598378366879</v>
+        <v>-1.300182178570483</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1245215538358183</v>
+        <v>0.121866183578184</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.833311420057031</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7686117522911811</v>
+        <v>0.7581476731727741</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.233571263376159</v>
+        <v>-1.227529390979047</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1090898703705863</v>
+        <v>0.1066847691532389</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.712355153987805</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6094516608026194</v>
+        <v>0.5998580142582917</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.198040929751039</v>
+        <v>-1.193866631041349</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09305061552453234</v>
+        <v>0.09109253573763428</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.595488394978786</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4385289244205777</v>
+        <v>0.4285512172106526</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.061827676022359</v>
+        <v>-1.055844829342295</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01908903103373432</v>
+        <v>0.0167642047915732</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4852658057082269</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3588520765003369</v>
+        <v>0.3495590676081776</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.077401021208508</v>
+        <v>-1.073425835917663</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.01989155250527722</v>
+        <v>-0.02218489836501232</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.382675866658551</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2232377370473122</v>
+        <v>0.2143366589163568</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9542828195594897</v>
+        <v>-0.9485407978049848</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.0111683385350288</v>
+        <v>-0.01223709751839197</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2881486209231588</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2172281320421862</v>
+        <v>0.2089535135215085</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.9254735475823233</v>
+        <v>-0.9198385591280668</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.08843378916143697</v>
+        <v>-0.0903383522982108</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2016895448728913</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04105918992884932</v>
+        <v>0.03231079165266009</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8664305163232131</v>
+        <v>-0.8608065460028058</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.0972105197818096</v>
+        <v>-0.09883333349587062</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1214825947566496</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03040150645852236</v>
+        <v>0.02278010587318443</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9542607832917915</v>
+        <v>-0.9506303081885115</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1396885738083513</v>
+        <v>-0.1414499012050867</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.04582326389197657</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.02233757821977848</v>
+        <v>-0.02928215058295712</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9169431509544341</v>
+        <v>-0.9131135624323096</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1494097159015043</v>
+        <v>-0.1509554026786216</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.02671486523541983</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.08902719437016733</v>
+        <v>-0.09549798697783446</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8725109521887977</v>
+        <v>-0.8683964662057176</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1857427992784881</v>
+        <v>-0.1874033894514603</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.09951779987516358</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1913951019430788</v>
+        <v>-0.1978989489522933</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8776477635911625</v>
+        <v>-0.8738000738491429</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2362373326898141</v>
+        <v>-0.2381655061134075</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.173933090081535</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2732708545757767</v>
+        <v>-0.2796047075198907</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8600148143847915</v>
+        <v>-0.8554525199617015</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2301159723270758</v>
+        <v>-0.231342133222569</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2516616600139148</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3085461971032464</v>
+        <v>-0.3145967266055263</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8456172614822541</v>
+        <v>-0.8412288961720679</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2336228869293337</v>
+        <v>-0.2345783165359632</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.334575868340461</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3634684463027913</v>
+        <v>-0.369303335185453</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8468890689322651</v>
+        <v>-0.8426911599357562</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3445754947898192</v>
+        <v>-0.3463714506072233</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4227011551165212</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3850403783602173</v>
+        <v>-0.3902645478238143</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7534159434138238</v>
+        <v>-0.7482389945238658</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3539802590395908</v>
+        <v>-0.3559257466735185</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5156693632620496</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4976079298391572</v>
+        <v>-0.5029658909280648</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7513791626708607</v>
+        <v>-0.7461124946909885</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4064848148688178</v>
+        <v>-0.4088127891492215</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6123985888993432</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5161152466674107</v>
+        <v>-0.5210356304405968</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7412739599121102</v>
+        <v>-0.7351400073964015</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4103112553526998</v>
+        <v>-0.4124771056636096</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.7099645532257223</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5333051094911355</v>
+        <v>-0.5373393204990292</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7537590795822673</v>
+        <v>-0.7479383568716973</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4508202114584943</v>
+        <v>-0.4526712579451439</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.8069446158966238</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6393955722859233</v>
+        <v>-0.6441884605102838</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7944899723841652</v>
+        <v>-0.7883780561361546</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4842035830021606</v>
+        <v>-0.48596963245626</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.9009815754339797</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7197870248872346</v>
+        <v>-0.7245295444997135</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8091645526520514</v>
+        <v>-0.8029928236774315</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5424816409683185</v>
+        <v>-0.5450756244802221</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.9899285584006051</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7489630433196641</v>
+        <v>-0.7540109226416754</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8549590649671737</v>
+        <v>-0.8493012532356584</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5367490633285414</v>
+        <v>-0.5388031582818389</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.072584282919311</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8053223719769566</v>
+        <v>-0.8100397072834947</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8683201262783345</v>
+        <v>-0.8625623643326167</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5740123920062139</v>
+        <v>-0.5760397286344492</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.146389140112473</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8327433590891358</v>
+        <v>-0.8377062413785968</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9709296457863658</v>
+        <v>-0.9661485627054149</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6544557872385282</v>
+        <v>-0.6581673243265552</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.209273315719509</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9589183058717202</v>
+        <v>-0.9640881716756323</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9361753035880466</v>
+        <v>-0.9310935828549274</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.654690316087602</v>
+        <v>-0.6579202033245111</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.259288173076262</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.008948503642263</v>
+        <v>-1.013949949400196</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.01857835262638</v>
+        <v>-1.014046751576156</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7134988184976383</v>
+        <v>-0.7171048963045382</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.295327688092061</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.03798915643026</v>
+        <v>-1.043214112903418</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9856317713888748</v>
+        <v>-0.9804493134319924</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7427141874081004</v>
+        <v>-0.7464587788976746</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.316244463796466</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.1831814022364</v>
+        <v>-1.18980172666059</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9817423701401409</v>
+        <v>-0.9769707311739179</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7641082553048193</v>
+        <v>-0.7679504359799143</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.322296691747209</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.186518322773557</v>
+        <v>-1.193252763584042</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.023627018957952</v>
+        <v>-1.019077316687833</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.792667258241699</v>
+        <v>-0.7970052549400037</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.314439335574209</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.16280336368248</v>
+        <v>-1.169448085403051</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.110726154044686</v>
+        <v>-1.106954017220489</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7566379605551262</v>
+        <v>-0.7605084735744047</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.294481444608458</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.118789066993549</v>
+        <v>-1.125698223926499</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.17517043191854</v>
+        <v>-1.172242756352921</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7467908969322692</v>
+        <v>-0.7504882678482044</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.26401064070679</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.119591029735852</v>
+        <v>-1.126747307670845</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.169005786029966</v>
+        <v>-1.165647616234671</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7505795609572399</v>
+        <v>-0.7549915365542458</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.224541044278136</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.041980081912318</v>
+        <v>-1.048973448868257</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.201460486292065</v>
+        <v>-1.197693858534792</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7639917778898431</v>
+        <v>-0.7689090136247864</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.177287866116705</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9512811650951692</v>
+        <v>-0.9589552953210708</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.28092484163093</v>
+        <v>-1.278141188814909</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7091797100287892</v>
+        <v>-0.713675108639224</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.123996135372831</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8415476350441312</v>
+        <v>-0.8491855628302428</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.23075298213947</v>
+        <v>-1.227271251843153</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7170686938647483</v>
+        <v>-0.7224266549536558</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.065417229826414</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7492746991056817</v>
+        <v>-0.757709867576732</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.232629212932061</v>
+        <v>-1.229250580888189</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6773624875108171</v>
+        <v>-0.6825630466875946</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.000893739356429</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6274896916524049</v>
+        <v>-0.6359217120852126</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.295303506304011</v>
+        <v>-1.293045575874506</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6539883035595019</v>
+        <v>-0.6592785818261935</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.930173078782178</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4510106677721717</v>
+        <v>-0.4590381652908052</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.213460808072861</v>
+        <v>-1.210459940618101</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6691350895637784</v>
+        <v>-0.6747858182092479</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.8521412803041809</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2319528526416337</v>
+        <v>-0.2393239841866848</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.22613008798021</v>
+        <v>-1.223555779707323</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6031160055590636</v>
+        <v>-0.6082394377988974</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.7667027658487688</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.06454175291921382</v>
+        <v>-0.07166891150046334</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.236111730237939</v>
+        <v>-1.233075447352949</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.474186525314203</v>
+        <v>-0.4780696304864518</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6750910605864864</v>
       </c>
       <c r="E83" t="n">
-        <v>0.12620575429561</v>
+        <v>0.1188361967696802</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.152470715160702</v>
+        <v>-1.149457255552972</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4328228768255423</v>
+        <v>-0.4366005227166639</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5778169297610771</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2757517369912671</v>
+        <v>0.2681161702338374</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.127007807835421</v>
+        <v>-1.123486727061071</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3413896800883066</v>
+        <v>-0.3445093859867245</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.47746388257969</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4804954222326966</v>
+        <v>0.4742324001490412</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.103499045249234</v>
+        <v>-1.100810620590053</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2700645776256873</v>
+        <v>-0.2720132132978575</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.376761131608221</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6386339753115341</v>
+        <v>0.6322261434687191</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9970190127219247</v>
+        <v>-0.9935750588845188</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2100661167599476</v>
+        <v>-0.2124428856331116</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2787082786130179</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8608130703596114</v>
+        <v>0.8560186081161295</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9473358861676291</v>
+        <v>-0.9446907470342834</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1524145184040673</v>
+        <v>-0.1547204564167728</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1874743372588752</v>
       </c>
       <c r="E88" t="n">
-        <v>0.968353204765117</v>
+        <v>0.9634139327624754</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7743031771534838</v>
+        <v>-0.7710622717827258</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09087666683769563</v>
+        <v>-0.09291816963802263</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1058545613275954</v>
       </c>
       <c r="E89" t="n">
-        <v>1.21082140628676</v>
+        <v>1.20667071786389</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.617178292388764</v>
+        <v>-0.6137831331441185</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02841509432744089</v>
+        <v>0.02766113916833786</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.03662384873574197</v>
       </c>
       <c r="E90" t="n">
-        <v>1.377377813626314</v>
+        <v>1.374862531070475</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5424753448918334</v>
+        <v>-0.5402717181220124</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0497131470577605</v>
+        <v>0.04841615530180873</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.01742484012260052</v>
       </c>
       <c r="E91" t="n">
-        <v>1.456607640116105</v>
+        <v>1.455123340084719</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3270912903904111</v>
+        <v>-0.3234978047364817</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07777948200967306</v>
+        <v>0.07735449684692187</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.05391133850685197</v>
       </c>
       <c r="E92" t="n">
-        <v>1.591441266084965</v>
+        <v>1.591480616562997</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2337960290326768</v>
+        <v>-0.2308715015053001</v>
       </c>
       <c r="G92" t="n">
-        <v>0.091363267026498</v>
+        <v>0.09063449617333579</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07114172316791334</v>
       </c>
       <c r="E93" t="n">
-        <v>1.601129353776571</v>
+        <v>1.601864420706218</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.02989444402114309</v>
+        <v>-0.02619549908608647</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1162390652195341</v>
+        <v>0.1161461980913773</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.06952105312894646</v>
       </c>
       <c r="E94" t="n">
-        <v>1.551494234805475</v>
+        <v>1.5517917244194</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1286155775703214</v>
+        <v>0.1323806313084726</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1284581756581913</v>
+        <v>0.1288327922090609</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.05140890426826356</v>
       </c>
       <c r="E95" t="n">
-        <v>1.543847649914196</v>
+        <v>1.544066438572057</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1858957074135747</v>
+        <v>0.1887745883864337</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1394747354881748</v>
+        <v>0.1400004578746893</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.01990008726503113</v>
       </c>
       <c r="E96" t="n">
-        <v>1.508498328488025</v>
+        <v>1.509842540817616</v>
       </c>
       <c r="F96" t="n">
-        <v>0.276766979324506</v>
+        <v>0.279562437283936</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05227092812987411</v>
+        <v>0.05196871645858438</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.01789941659671286</v>
       </c>
       <c r="E97" t="n">
-        <v>1.351600102476772</v>
+        <v>1.352476831127337</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2944589542479257</v>
+        <v>0.2968876657520927</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03099018960988882</v>
+        <v>0.03102324401143613</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0530002339957272</v>
       </c>
       <c r="E98" t="n">
-        <v>1.287079484675536</v>
+        <v>1.288086856913168</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2471392174042632</v>
+        <v>0.2496859803425277</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02656247382166998</v>
+        <v>0.02673246788677046</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.07786218702866683</v>
       </c>
       <c r="E99" t="n">
-        <v>1.182180554355573</v>
+        <v>1.183461805920312</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2231511659956407</v>
+        <v>0.2249974904249264</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05814201945232568</v>
+        <v>0.05874172073754124</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.09311849685899536</v>
       </c>
       <c r="E100" t="n">
-        <v>1.06551897914213</v>
+        <v>1.067102442378158</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2178010750023396</v>
+        <v>0.2202659889462965</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02310592783129367</v>
+        <v>0.02305870725765465</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.102745920885803</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9048588474309686</v>
+        <v>0.9058583495729945</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1861428284156189</v>
+        <v>0.1882284037513423</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01545911465969448</v>
+        <v>-0.01558031413203463</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1153590543289301</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7360909432259876</v>
+        <v>0.7368165660409072</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1522652148678642</v>
+        <v>0.1534079527499285</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03891357358619603</v>
+        <v>-0.03923467348694137</v>
       </c>
     </row>
   </sheetData>
